--- a/Technology/Software/Toast.xlsx
+++ b/Technology/Software/Toast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52255C2-CF3A-7F43-A266-AAC7B1C96038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B2753-6E05-EB4F-BCC6-08027688E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -973,7 +973,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1030,6 +1029,8 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2227,12 +2228,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>26.035</v>
-    <v>11.91</v>
-    <v>2.0009999999999999</v>
-    <v>0.14000000000000001</v>
-    <v>7.8739999999999991E-3</v>
-    <v>-0.02</v>
-    <v>-1.116E-3</v>
+    <v>12.15</v>
+    <v>1.9950000000000001</v>
+    <v>-0.04</v>
+    <v>-1.8729999999999999E-3</v>
+    <v>0.13</v>
+    <v>6.0980000000000001E-3</v>
     <v>USD</v>
     <v>Toast, Inc. is a cloud-based, end-to-end technology digital platform purpose-built for the restaurant community. The Company’s platform provides a suite of software as a service (SaaS), products and financial technology solutions, including integrated payment processing, restaurant-grade hardware, and an ecosystem of third-party partners. The Company's portfolio spans several product categories, including restaurant operations and point of sale, digital ordering and delivery, marketing and loyalty, team management, supply chain and accounting, financial technology solutions, and platform and insights. The Company serves as the restaurant operating system, connecting front-of-house and back-of-house operations across dine-in, takeout, and delivery channels. It operates approximately 79,000 restaurant locations. The Company’s subsidiaries include Toasttab Ireland Limited, Toast Capital LLC, Toast Processing Services LLC, Toast MSC, Inc., Stratex HoldCo, LLC and OAE Software, LLC.</v>
     <v>4500</v>
@@ -2240,25 +2241,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>401 Park Drive Suite 801, BOSTON, MA, 02215 US</v>
-    <v>17.989999999999998</v>
+    <v>21.98</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.958333344533</v>
+    <v>45071.977747372657</v>
     <v>0</v>
-    <v>17.63</v>
-    <v>9440799000</v>
+    <v>21.180099999999999</v>
+    <v>11309908220</v>
     <v>TOAST, INC.</v>
     <v>TOAST, INC.</v>
-    <v>17.79</v>
+    <v>21.67</v>
     <v>0</v>
-    <v>17.78</v>
-    <v>17.920000000000002</v>
-    <v>17.899999999999999</v>
-    <v>526830300</v>
+    <v>21.36</v>
+    <v>21.32</v>
+    <v>21.45</v>
+    <v>530483500</v>
     <v>TOST</v>
     <v>TOAST, INC. (XNYS:TOST)</v>
-    <v>2711822</v>
-    <v>5026886</v>
+    <v>5459368</v>
+    <v>6650622</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2423,9 +2424,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2846,10 +2847,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2968,7 +2969,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="1"/>
@@ -3033,10 +3034,10 @@
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3135,7 +3136,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="21">
@@ -3249,7 +3250,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="21">
@@ -3355,15 +3356,15 @@
       </c>
       <c r="L16" s="24">
         <f>M101/E3</f>
-        <v>3.4569018674478214</v>
+        <v>4.141306561699011</v>
       </c>
       <c r="M16" s="24">
         <f>M101/E28</f>
-        <v>-34.330178181818184</v>
+        <v>-41.126938981818185</v>
       </c>
       <c r="N16" s="25">
         <f>M101/E106</f>
-        <v>-49.951317460317462</v>
+        <v>-59.840784232804232</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3425,7 +3426,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>153</v>
       </c>
       <c r="B20" s="1"/>
@@ -3579,7 +3580,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="1"/>
@@ -3682,19 +3683,19 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="56" t="s">
         <v>155</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="59">
+      <c r="C35" s="58">
         <f>(C34-B34)/B34</f>
         <v>-2.727270351938996E-2</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="58">
         <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="58">
         <f t="shared" si="3"/>
         <v>0.14186639869200113</v>
       </c>
@@ -4448,7 +4449,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="56" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="21">
@@ -4518,10 +4519,10 @@
       <c r="E83" s="1">
         <v>-68000000</v>
       </c>
-      <c r="L83" s="62" t="s">
+      <c r="L83" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="M83" s="63"/>
+      <c r="M83" s="62"/>
     </row>
     <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4539,10 +4540,10 @@
       <c r="E84" s="1">
         <v>-11000000</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="M84" s="65"/>
+      <c r="M84" s="64"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4641,7 +4642,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="56" t="s">
         <v>157</v>
       </c>
       <c r="B89" s="21">
@@ -4756,10 +4757,10 @@
       <c r="E93" s="1">
         <v>-17000000</v>
       </c>
-      <c r="L93" s="64" t="s">
+      <c r="L93" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="M93" s="65"/>
+      <c r="M93" s="64"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4805,7 +4806,7 @@
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.0009999999999999</v>
+        <v>1.9950000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4852,7 +4853,7 @@
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12709304999999999</v>
+        <v>0.12683475</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,10 +4872,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="64" t="s">
+      <c r="L98" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="M98" s="65"/>
+      <c r="M98" s="64"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4921,7 +4922,7 @@
       </c>
       <c r="M100" s="30">
         <f>M99/M103</f>
-        <v>9.8586241828485313E-3</v>
+        <v>8.2427881903805785E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4946,7 @@
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9440799000</v>
+        <v>11309908220</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4969,7 +4970,7 @@
       </c>
       <c r="M102" s="30">
         <f>M101/M103</f>
-        <v>0.99014137581715145</v>
+        <v>0.9917572118096194</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4993,7 +4994,7 @@
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>9534799000</v>
+        <v>11403908220</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5012,13 +5013,13 @@
       <c r="E104" s="11">
         <v>635000000</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="L104" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="M104" s="65"/>
+      <c r="M104" s="64"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="56" t="s">
         <v>158</v>
       </c>
       <c r="B105" s="1"/>
@@ -5034,18 +5035,28 @@
         <f>(E106/D106)-1</f>
         <v>10.117647058823529</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
+      <c r="F105" s="65">
+        <v>20184000</v>
+      </c>
+      <c r="G105" s="65">
+        <v>101600000</v>
+      </c>
+      <c r="H105" s="65">
+        <v>244500000</v>
+      </c>
+      <c r="I105" s="65">
+        <v>559900000</v>
+      </c>
+      <c r="J105" s="65">
+        <v>840200000</v>
+      </c>
       <c r="K105" s="21"/>
       <c r="L105" s="37" t="s">
         <v>135</v>
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12698542643261576</v>
+        <v>0.12674689512925363</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5105,69 +5116,69 @@
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="43">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>-4949273586.9732256</v>
-      </c>
-      <c r="K107" s="44" t="s">
+      <c r="J107" s="66">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>8464189486.1358919</v>
+      </c>
+      <c r="K107" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="L107" s="45" t="s">
+      <c r="L107" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="M107" s="46">
+      <c r="M107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="43">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>-228897255.66685027</v>
-      </c>
-      <c r="G108" s="43">
-        <f t="shared" si="7"/>
-        <v>-277216685.98844135</v>
-      </c>
-      <c r="H108" s="43">
-        <f t="shared" si="7"/>
-        <v>-335736183.32176304</v>
-      </c>
-      <c r="I108" s="43">
-        <f>I107+I106</f>
-        <v>-406608947.03922808</v>
-      </c>
-      <c r="J108" s="43">
-        <f>J107+J106</f>
-        <v>-5441716296.5333681</v>
-      </c>
-      <c r="K108" s="44" t="s">
+      <c r="F108" s="66">
+        <f>F107+F105</f>
+        <v>20184000</v>
+      </c>
+      <c r="G108" s="66">
+        <f>G107+G105</f>
+        <v>101600000</v>
+      </c>
+      <c r="H108" s="66">
+        <f>H107+H105</f>
+        <v>244500000</v>
+      </c>
+      <c r="I108" s="66">
+        <f>I107+I105</f>
+        <v>559900000</v>
+      </c>
+      <c r="J108" s="66">
+        <f>J107+J105</f>
+        <v>9304389486.135891</v>
+      </c>
+      <c r="K108" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="L108" s="47" t="s">
+      <c r="L108" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="M108" s="48">
+      <c r="M108" s="47">
         <f>M105</f>
-        <v>0.12698542643261576</v>
+        <v>0.12674689512925363</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="60"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="49" t="s">
+      <c r="F110" s="48" t="s">
         <v>142</v>
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>-3901243896.3168612</v>
+        <v>5739617846.8791113</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="49" t="s">
+      <c r="F111" s="48" t="s">
         <v>143</v>
       </c>
       <c r="G111" s="35">
@@ -5176,7 +5187,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="49" t="s">
+      <c r="F112" s="48" t="s">
         <v>129</v>
       </c>
       <c r="G112" s="35">
@@ -5185,55 +5196,55 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="49" t="s">
+      <c r="F113" s="48" t="s">
         <v>144</v>
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>-2974243896.3168612</v>
+        <v>6666617846.8791113</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="49" t="s">
+      <c r="F114" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G114" s="50">
+      <c r="G114" s="49">
         <f>E34*(1+(5*K16))</f>
         <v>610076156.57205927</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="51" t="s">
+      <c r="F115" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="G115" s="52">
+      <c r="G115" s="51">
         <f>G113/G114</f>
-        <v>-4.8752010126551433</v>
+        <v>10.927517450178669</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="49" t="s">
+      <c r="F116" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G116" s="53" cm="1">
+      <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>17.920000000000002</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="G117" s="55">
+      <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-1.272053627938345</v>
+        <v>-0.4874522771961225</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="G118" s="56" t="str">
+      <c r="G118" s="55" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Toast.xlsx
+++ b/Technology/Software/Toast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B2753-6E05-EB4F-BCC6-08027688E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EFBF6-A78E-AC44-9A15-35441E62FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,6 +1011,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,8 +1031,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2229,11 +2229,11 @@
     <v>Powered by Refinitiv</v>
     <v>26.035</v>
     <v>12.15</v>
-    <v>1.9950000000000001</v>
-    <v>-0.04</v>
-    <v>-1.8729999999999999E-3</v>
-    <v>0.13</v>
-    <v>6.0980000000000001E-3</v>
+    <v>2.0059999999999998</v>
+    <v>0.1</v>
+    <v>4.6899999999999997E-3</v>
+    <v>0.08</v>
+    <v>3.735E-3</v>
     <v>USD</v>
     <v>Toast, Inc. is a cloud-based, end-to-end technology digital platform purpose-built for the restaurant community. The Company’s platform provides a suite of software as a service (SaaS), products and financial technology solutions, including integrated payment processing, restaurant-grade hardware, and an ecosystem of third-party partners. The Company's portfolio spans several product categories, including restaurant operations and point of sale, digital ordering and delivery, marketing and loyalty, team management, supply chain and accounting, financial technology solutions, and platform and insights. The Company serves as the restaurant operating system, connecting front-of-house and back-of-house operations across dine-in, takeout, and delivery channels. It operates approximately 79,000 restaurant locations. The Company’s subsidiaries include Toasttab Ireland Limited, Toast Capital LLC, Toast Processing Services LLC, Toast MSC, Inc., Stratex HoldCo, LLC and OAE Software, LLC.</v>
     <v>4500</v>
@@ -2241,25 +2241,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>401 Park Drive Suite 801, BOSTON, MA, 02215 US</v>
-    <v>21.98</v>
+    <v>22.215</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.977747372657</v>
+    <v>45072.968715856252</v>
     <v>0</v>
-    <v>21.180099999999999</v>
-    <v>11309908220</v>
+    <v>21.4</v>
+    <v>11362960000</v>
     <v>TOAST, INC.</v>
     <v>TOAST, INC.</v>
-    <v>21.67</v>
+    <v>21.43</v>
     <v>0</v>
-    <v>21.36</v>
     <v>21.32</v>
-    <v>21.45</v>
+    <v>21.42</v>
+    <v>21.5</v>
     <v>530483500</v>
     <v>TOST</v>
     <v>TOAST, INC. (XNYS:TOST)</v>
-    <v>5459368</v>
-    <v>6650622</v>
+    <v>4704575</v>
+    <v>6754761</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2424,9 +2424,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2847,10 +2847,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3356,15 +3356,15 @@
       </c>
       <c r="L16" s="24">
         <f>M101/E3</f>
-        <v>4.141306561699011</v>
+        <v>4.1607323324789451</v>
       </c>
       <c r="M16" s="24">
         <f>M101/E28</f>
-        <v>-41.126938981818185</v>
+        <v>-41.319854545454547</v>
       </c>
       <c r="N16" s="25">
         <f>M101/E106</f>
-        <v>-59.840784232804232</v>
+        <v>-60.121481481481482</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4519,10 +4519,10 @@
       <c r="E83" s="1">
         <v>-68000000</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="M83" s="62"/>
+      <c r="M83" s="64"/>
     </row>
     <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4540,10 +4540,10 @@
       <c r="E84" s="1">
         <v>-11000000</v>
       </c>
-      <c r="L84" s="63" t="s">
+      <c r="L84" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="M84" s="64"/>
+      <c r="M84" s="66"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4757,10 +4757,10 @@
       <c r="E93" s="1">
         <v>-17000000</v>
       </c>
-      <c r="L93" s="63" t="s">
+      <c r="L93" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="M93" s="64"/>
+      <c r="M93" s="66"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.9950000000000001</v>
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12683475</v>
+        <v>0.12730829999999999</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,10 +4872,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="63" t="s">
+      <c r="L98" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="M98" s="64"/>
+      <c r="M98" s="66"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="M100" s="30">
         <f>M99/M103</f>
-        <v>8.2427881903805785E-3</v>
+        <v>8.2046197246040831E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11309908220</v>
+        <v>11362960000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="M102" s="30">
         <f>M101/M103</f>
-        <v>0.9917572118096194</v>
+        <v>0.99179538027539593</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>11403908220</v>
+        <v>11456960000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5013,10 +5013,10 @@
       <c r="E104" s="11">
         <v>635000000</v>
       </c>
-      <c r="L104" s="63" t="s">
+      <c r="L104" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="M104" s="64"/>
+      <c r="M104" s="66"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="56" t="s">
@@ -5035,19 +5035,19 @@
         <f>(E106/D106)-1</f>
         <v>10.117647058823529</v>
       </c>
-      <c r="F105" s="65">
+      <c r="F105" s="59">
         <v>20184000</v>
       </c>
-      <c r="G105" s="65">
+      <c r="G105" s="59">
         <v>101600000</v>
       </c>
-      <c r="H105" s="65">
+      <c r="H105" s="59">
         <v>244500000</v>
       </c>
-      <c r="I105" s="65">
+      <c r="I105" s="59">
         <v>559900000</v>
       </c>
-      <c r="J105" s="65">
+      <c r="J105" s="59">
         <v>840200000</v>
       </c>
       <c r="K105" s="21"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12674689512925363</v>
+        <v>0.12721696664606741</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5116,9 +5116,9 @@
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="66">
+      <c r="J107" s="60">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>8464189486.1358919</v>
+        <v>8425264691.9368639</v>
       </c>
       <c r="K107" s="43" t="s">
         <v>138</v>
@@ -5131,25 +5131,25 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="66">
+      <c r="F108" s="60">
         <f>F107+F105</f>
         <v>20184000</v>
       </c>
-      <c r="G108" s="66">
+      <c r="G108" s="60">
         <f>G107+G105</f>
         <v>101600000</v>
       </c>
-      <c r="H108" s="66">
+      <c r="H108" s="60">
         <f>H107+H105</f>
         <v>244500000</v>
       </c>
-      <c r="I108" s="66">
+      <c r="I108" s="60">
         <f>I107+I105</f>
         <v>559900000</v>
       </c>
-      <c r="J108" s="66">
+      <c r="J108" s="60">
         <f>J107+J105</f>
-        <v>9304389486.135891</v>
+        <v>9265464691.9368629</v>
       </c>
       <c r="K108" s="43" t="s">
         <v>133</v>
@@ -5159,14 +5159,14 @@
       </c>
       <c r="M108" s="47">
         <f>M105</f>
-        <v>0.12674689512925363</v>
+        <v>0.12721696664606741</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="59" t="s">
+      <c r="F109" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="G109" s="60"/>
+      <c r="G109" s="62"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="48" t="s">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5739617846.8791113</v>
+        <v>5706688060.9542322</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>6666617846.8791113</v>
+        <v>6633688060.9542322</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="G115" s="51">
         <f>G113/G114</f>
-        <v>10.927517450178669</v>
+        <v>10.873540933361641</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>21.32</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-0.4874522771961225</v>
+        <v>-0.49236503579077318</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Toast.xlsx
+++ b/Technology/Software/Toast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EFBF6-A78E-AC44-9A15-35441E62FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0C5B0-DF94-534B-984C-2A5D6784BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,37 +2229,34 @@
     <v>Powered by Refinitiv</v>
     <v>26.035</v>
     <v>12.15</v>
-    <v>2.0059999999999998</v>
-    <v>0.1</v>
-    <v>4.6899999999999997E-3</v>
-    <v>0.08</v>
-    <v>3.735E-3</v>
+    <v>1.996</v>
+    <v>0.3</v>
+    <v>1.4090999999999999E-2</v>
     <v>USD</v>
     <v>Toast, Inc. is a cloud-based, end-to-end technology digital platform purpose-built for the restaurant community. The Company’s platform provides a suite of software as a service (SaaS), products and financial technology solutions, including integrated payment processing, restaurant-grade hardware, and an ecosystem of third-party partners. The Company's portfolio spans several product categories, including restaurant operations and point of sale, digital ordering and delivery, marketing and loyalty, team management, supply chain and accounting, financial technology solutions, and platform and insights. The Company serves as the restaurant operating system, connecting front-of-house and back-of-house operations across dine-in, takeout, and delivery channels. It operates approximately 79,000 restaurant locations. The Company’s subsidiaries include Toasttab Ireland Limited, Toast Capital LLC, Toast Processing Services LLC, Toast MSC, Inc., Stratex HoldCo, LLC and OAE Software, LLC.</v>
     <v>4500</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>401 Park Drive Suite 801, BOSTON, MA, 02215 US</v>
-    <v>22.215</v>
+    <v>401 Park Drive, BOSTON, MA, 02215 US</v>
+    <v>21.77</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.968715856252</v>
+    <v>45099.997014825778</v>
     <v>0</v>
-    <v>21.4</v>
-    <v>11362960000</v>
+    <v>21.07</v>
+    <v>11453138765</v>
     <v>TOAST, INC.</v>
     <v>TOAST, INC.</v>
-    <v>21.43</v>
+    <v>21.25</v>
     <v>0</v>
-    <v>21.32</v>
-    <v>21.42</v>
-    <v>21.5</v>
+    <v>21.29</v>
+    <v>21.59</v>
     <v>530483500</v>
     <v>TOST</v>
     <v>TOAST, INC. (XNYS:TOST)</v>
-    <v>4704575</v>
-    <v>6754761</v>
+    <v>10</v>
+    <v>7297323</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2291,8 +2288,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2313,7 +2308,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2330,7 +2324,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2341,16 +2335,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2416,19 +2407,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2473,9 +2458,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2483,9 +2465,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2850,7 +2829,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3356,15 +3335,15 @@
       </c>
       <c r="L16" s="24">
         <f>M101/E3</f>
-        <v>4.1607323324789451</v>
+        <v>4.1937527517392894</v>
       </c>
       <c r="M16" s="24">
         <f>M101/E28</f>
-        <v>-41.319854545454547</v>
+        <v>-41.647777327272728</v>
       </c>
       <c r="N16" s="25">
         <f>M101/E106</f>
-        <v>-60.121481481481482</v>
+        <v>-60.598617804232802</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4806,7 +4785,7 @@
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.0059999999999998</v>
+        <v>1.996</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4853,7 +4832,7 @@
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12730829999999999</v>
+        <v>0.12687780000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,7 +4901,7 @@
       </c>
       <c r="M100" s="30">
         <f>M99/M103</f>
-        <v>8.2046197246040831E-3</v>
+        <v>8.1405447629086317E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4946,7 +4925,7 @@
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11362960000</v>
+        <v>11453138765</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4970,7 +4949,7 @@
       </c>
       <c r="M102" s="30">
         <f>M101/M103</f>
-        <v>0.99179538027539593</v>
+        <v>0.9918594552370914</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4994,7 +4973,7 @@
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>11456960000</v>
+        <v>11547138765</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5056,7 +5035,7 @@
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12721696664606741</v>
+        <v>0.12679068442936875</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5118,7 +5097,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="60">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>8425264691.9368639</v>
+        <v>8460548279.322937</v>
       </c>
       <c r="K107" s="43" t="s">
         <v>138</v>
@@ -5149,7 +5128,7 @@
       </c>
       <c r="J108" s="60">
         <f>J107+J105</f>
-        <v>9265464691.9368629</v>
+        <v>9300748279.322937</v>
       </c>
       <c r="K108" s="43" t="s">
         <v>133</v>
@@ -5159,7 +5138,7 @@
       </c>
       <c r="M108" s="47">
         <f>M105</f>
-        <v>0.12721696664606741</v>
+        <v>0.12679068442936875</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5174,7 +5153,7 @@
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5706688060.9542322</v>
+        <v>5736536957.1720591</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5201,7 +5180,7 @@
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>6633688060.9542322</v>
+        <v>6663536957.1720591</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5219,7 +5198,7 @@
       </c>
       <c r="G115" s="51">
         <f>G113/G114</f>
-        <v>10.873540933361641</v>
+        <v>10.922467441792234</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5228,7 +5207,7 @@
       </c>
       <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>21.42</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5237,7 +5216,7 @@
       </c>
       <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-0.49236503579077318</v>
+        <v>-0.49409599621156863</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Toast.xlsx
+++ b/Technology/Software/Toast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0C5B0-DF94-534B-984C-2A5D6784BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22D4FA-787D-A84C-89B0-EDD167CBF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2229,9 +2229,9 @@
     <v>Powered by Refinitiv</v>
     <v>26.035</v>
     <v>12.15</v>
-    <v>1.996</v>
-    <v>0.3</v>
-    <v>1.4090999999999999E-2</v>
+    <v>1.97</v>
+    <v>0.56000000000000005</v>
+    <v>2.5089999999999998E-2</v>
     <v>USD</v>
     <v>Toast, Inc. is a cloud-based, end-to-end technology digital platform purpose-built for the restaurant community. The Company’s platform provides a suite of software as a service (SaaS), products and financial technology solutions, including integrated payment processing, restaurant-grade hardware, and an ecosystem of third-party partners. The Company's portfolio spans several product categories, including restaurant operations and point of sale, digital ordering and delivery, marketing and loyalty, team management, supply chain and accounting, financial technology solutions, and platform and insights. The Company serves as the restaurant operating system, connecting front-of-house and back-of-house operations across dine-in, takeout, and delivery channels. It operates approximately 79,000 restaurant locations. The Company’s subsidiaries include Toasttab Ireland Limited, Toast Capital LLC, Toast Processing Services LLC, Toast MSC, Inc., Stratex HoldCo, LLC and OAE Software, LLC.</v>
     <v>4500</v>
@@ -2239,24 +2239,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>401 Park Drive, BOSTON, MA, 02215 US</v>
-    <v>21.77</v>
+    <v>23.06</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.997014825778</v>
+    <v>45106.995231700785</v>
     <v>0</v>
-    <v>21.07</v>
-    <v>11453138765</v>
+    <v>22.08</v>
+    <v>12137462480</v>
     <v>TOAST, INC.</v>
     <v>TOAST, INC.</v>
-    <v>21.25</v>
+    <v>22.33</v>
     <v>0</v>
-    <v>21.29</v>
-    <v>21.59</v>
+    <v>22.32</v>
+    <v>22.88</v>
     <v>530483500</v>
     <v>TOST</v>
     <v>TOAST, INC. (XNYS:TOST)</v>
-    <v>10</v>
-    <v>7297323</v>
+    <v>7341003</v>
+    <v>7315691</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2409,10 +2409,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2829,7 +2829,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomRight" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3335,15 +3335,15 @@
       </c>
       <c r="L16" s="24">
         <f>M101/E3</f>
-        <v>4.1937527517392894</v>
+        <v>4.4443289930428413</v>
       </c>
       <c r="M16" s="24">
         <f>M101/E28</f>
-        <v>-41.647777327272728</v>
+        <v>-44.1362272</v>
       </c>
       <c r="N16" s="25">
         <f>M101/E106</f>
-        <v>-60.598617804232802</v>
+        <v>-64.219378201058205</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.996</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.12687780000000001</v>
+        <v>0.1257585</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="M100" s="30">
         <f>M99/M103</f>
-        <v>8.1405447629086317E-3</v>
+        <v>7.6850989939839147E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11453138765</v>
+        <v>12137462480</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="M102" s="30">
         <f>M101/M103</f>
-        <v>0.9918594552370914</v>
+        <v>0.99231490100601605</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>11547138765</v>
+        <v>12231462480</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12679068442936875</v>
+        <v>0.12568486028732095</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5097,7 +5097,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="60">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>8460548279.322937</v>
+        <v>8553470676.1513939</v>
       </c>
       <c r="K107" s="43" t="s">
         <v>138</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="J108" s="60">
         <f>J107+J105</f>
-        <v>9300748279.322937</v>
+        <v>9393670676.1513939</v>
       </c>
       <c r="K108" s="43" t="s">
         <v>133</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="M108" s="47">
         <f>M105</f>
-        <v>0.12679068442936875</v>
+        <v>0.12568486028732095</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5736536957.1720591</v>
+        <v>5815191102.3876829</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>6663536957.1720591</v>
+        <v>6742191102.3876829</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G115" s="51">
         <f>G113/G114</f>
-        <v>10.922467441792234</v>
+        <v>11.051392567562715</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>21.59</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-0.49409599621156863</v>
+        <v>-0.51698459057855262</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Toast.xlsx
+++ b/Technology/Software/Toast.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22D4FA-787D-A84C-89B0-EDD167CBF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D589EB-9748-5A49-94BC-D88E800D365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -480,9 +480,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -546,22 +540,54 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -836,56 +862,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -893,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -936,73 +918,13 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
@@ -1013,22 +935,77 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1070,7 +1047,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1081,19 +1058,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TOST</a:t>
+              <a:t>Toast</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.47052855563170509"/>
-          <c:y val="2.1058791059575928E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1107,7 +1076,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1127,10 +1096,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0583268497192551E-2"/>
-          <c:y val="0.11589354679786622"/>
-          <c:w val="0.86506710149154098"/>
-          <c:h val="0.76741679935117546"/>
+          <c:x val="9.2026755852842798E-2"/>
+          <c:y val="0.15086469585333967"/>
+          <c:w val="0.85579933110367901"/>
+          <c:h val="0.69957069444360775"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1184,6 +1153,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$E$3</c:f>
@@ -1207,7 +1197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A17-204E-8FBD-898BCA1CDA5B}"/>
+              <c16:uniqueId val="{00000000-6DD1-DF4B-AD2D-E54E730DED6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1216,11 +1206,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1258,30 +1248,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-205854000</c:v>
+                  <c:v>-209448000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-208224000</c:v>
+                  <c:v>-248203000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-457000000</c:v>
+                  <c:v>-487000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-242000000</c:v>
+                  <c:v>-275000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A17-204E-8FBD-898BCA1CDA5B}"/>
+              <c16:uniqueId val="{00000001-6DD1-DF4B-AD2D-E54E730DED6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1290,11 +1301,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1332,9 +1343,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1355,7 +1387,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4A17-204E-8FBD-898BCA1CDA5B}"/>
+              <c16:uniqueId val="{00000002-6DD1-DF4B-AD2D-E54E730DED6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1369,11 +1401,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1433779760"/>
-        <c:axId val="1433781488"/>
+        <c:axId val="495502480"/>
+        <c:axId val="495504208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1433779760"/>
+        <c:axId val="495502480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1433,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1413,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433781488"/>
+        <c:crossAx val="495504208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,10 +1453,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1433781488"/>
+        <c:axId val="495504208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-500000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1470,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433779760"/>
+        <c:crossAx val="495502480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,10 +1519,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34942209026986099"/>
-          <c:y val="0.92161800053135212"/>
-          <c:w val="0.30380702092424222"/>
-          <c:h val="4.7963745715927042E-2"/>
+          <c:x val="0.34127332578410974"/>
+          <c:y val="0.89747971251107017"/>
+          <c:w val="0.31745334843178047"/>
+          <c:h val="6.2734518552434199E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2071,22 +2102,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1537E6C1-F4A5-2F8D-56EA-EDB8E418EAB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9D52A8-06DD-26CA-9AD2-9C150A7E5916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,6 +2136,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2826,10 +2911,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J93" sqref="J93"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2876,25 +2961,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2920,36 +3005,36 @@
         <v>2731000000</v>
       </c>
       <c r="F3" s="15">
-        <v>3632000000</v>
+        <v>3768000000</v>
       </c>
       <c r="G3" s="15">
-        <v>4600000000</v>
+        <v>4782000000</v>
       </c>
       <c r="H3" s="15">
-        <v>5635000000</v>
+        <v>5762000000</v>
       </c>
       <c r="I3" s="15">
-        <v>6425000000</v>
+        <v>6630000000</v>
       </c>
       <c r="J3" s="15">
-        <v>7028000000</v>
+        <v>7451000000</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>150</v>
+      <c r="A4" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="21">
@@ -2966,23 +3051,23 @@
       </c>
       <c r="F4" s="18">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.3299157817649212</v>
+        <v>0.37971439033321119</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="0"/>
-        <v>0.26651982378854622</v>
+        <v>0.26910828025477707</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="0"/>
-        <v>0.22500000000000009</v>
+        <v>0.20493517356754487</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="0"/>
-        <v>0.1401952085181899</v>
+        <v>0.15064213814647687</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="0"/>
-        <v>9.3852140077820945E-2</v>
+        <v>0.12383107088989442</v>
       </c>
       <c r="K4" s="19">
         <f>(E4+D4+C4)/3</f>
@@ -2997,7 +3082,7 @@
         <v>0.2372731065485226</v>
       </c>
       <c r="N4" s="19">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>3.1204824827410049</v>
       </c>
       <c r="T4" s="18"/>
@@ -3013,10 +3098,10 @@
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3052,16 +3137,16 @@
         <v>511000000</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3093,7 +3178,7 @@
         <v>-0.1007</v>
       </c>
       <c r="N7" s="20">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>-6.9205419260344195E-2</v>
       </c>
     </row>
@@ -3115,8 +3200,8 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>151</v>
+      <c r="A9" s="28" t="s">
+        <v>148</v>
       </c>
       <c r="B9" s="21">
         <f>B8/B3</f>
@@ -3137,16 +3222,16 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="K9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3216,21 +3301,21 @@
         <v>613000000</v>
       </c>
       <c r="K12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
-        <v>152</v>
+      <c r="A13" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="B13" s="21">
         <f>B12/B3</f>
@@ -3272,16 +3357,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3301,16 +3386,16 @@
         <v>895000000</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L15" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3333,25 +3418,25 @@
         <f>(E35+D35+C35)/3</f>
         <v>3.8197898390870393E-2</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="54">
         <f>M101/E3</f>
         <v>4.4443289930428413</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="54">
         <f>M101/E28</f>
         <v>-44.1362272</v>
       </c>
-      <c r="N16" s="25">
-        <f>M101/E106</f>
+      <c r="N16" s="55">
+        <f>M101/E107</f>
         <v>-64.219378201058205</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>12651000</v>
@@ -3363,7 +3448,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3380,10 +3465,19 @@
         <v>24000000</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3399,14 +3493,41 @@
       <c r="E19" s="10">
         <v>-242000000</v>
       </c>
-      <c r="K19" s="26">
+      <c r="F19" s="58">
+        <v>4005000</v>
+      </c>
+      <c r="G19" s="58">
+        <v>111300000</v>
+      </c>
+      <c r="H19" s="58">
+        <v>259600000</v>
+      </c>
+      <c r="I19" s="58">
+        <v>689000000</v>
+      </c>
+      <c r="J19" s="58">
+        <v>1007000000</v>
+      </c>
+      <c r="K19" s="24">
         <f>E40-E56-E61</f>
         <v>927000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>153</v>
+      <c r="L19" s="54">
+        <f>M101/F3</f>
+        <v>3.2211949256900212</v>
+      </c>
+      <c r="M19" s="54">
+        <f>M101/F28</f>
+        <v>-485.49849920000003</v>
+      </c>
+      <c r="N19" s="55">
+        <f>M101/F105</f>
+        <v>-24.167262857594686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="21">
@@ -3421,8 +3542,30 @@
         <f>(E19/D19)-1</f>
         <v>-0.47045951859956237</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="18">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>-1.0165495867768595</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="3"/>
+        <v>26.790262172284645</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="3"/>
+        <v>1.3324348607367473</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="3"/>
+        <v>1.6540832049306626</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846145</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3438,8 +3581,34 @@
       <c r="E21" s="2">
         <v>-8.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="59">
+        <f>F19/F3</f>
+        <v>1.0628980891719745E-3</v>
+      </c>
+      <c r="G21" s="59">
+        <f t="shared" ref="G21:J21" si="4">G19/G3</f>
+        <v>2.327478042659975E-2</v>
+      </c>
+      <c r="H21" s="59">
+        <f t="shared" si="4"/>
+        <v>4.5053800763623739E-2</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.10392156862745099</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.13514964434304119</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3455,8 +3624,16 @@
       <c r="E22" s="10">
         <v>-384000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="M22" s="56">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="57">
+        <f>E107/M101</f>
+        <v>-1.5571623830881658E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3473,7 +3650,7 @@
         <v>-0.1406</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3490,7 +3667,7 @@
         <v>107000000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3507,7 +3684,7 @@
         <v>-277000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3524,7 +3701,7 @@
         <v>-0.1014</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3541,7 +3718,7 @@
         <v>-2000000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3557,10 +3734,25 @@
       <c r="E28" s="11">
         <v>-275000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>154</v>
+      <c r="F28" s="60">
+        <v>-25000000</v>
+      </c>
+      <c r="G28" s="60">
+        <v>83000000</v>
+      </c>
+      <c r="H28" s="60">
+        <v>53000000</v>
+      </c>
+      <c r="I28" s="60">
+        <v>99400000</v>
+      </c>
+      <c r="J28" s="60">
+        <v>286000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="21">
@@ -3575,8 +3767,28 @@
         <f>(E28/D28)-1</f>
         <v>-0.43531827515400412</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="18">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-0.90909090909090906</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.32</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.36144578313253017</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="5"/>
+        <v>0.87547169811320757</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="5"/>
+        <v>1.8772635814889336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3592,8 +3804,28 @@
       <c r="E30" s="2">
         <v>-0.1007</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="61">
+        <f>F28/F3</f>
+        <v>-6.6348195329087051E-3</v>
+      </c>
+      <c r="G30" s="61">
+        <f t="shared" ref="G30:J30" si="6">G28/G3</f>
+        <v>1.7356754496026767E-2</v>
+      </c>
+      <c r="H30" s="61">
+        <f t="shared" si="6"/>
+        <v>9.1981950711558479E-3</v>
+      </c>
+      <c r="I30" s="61">
+        <f t="shared" si="6"/>
+        <v>1.4992458521870287E-2</v>
+      </c>
+      <c r="J30" s="61">
+        <f t="shared" si="6"/>
+        <v>3.8384109515501273E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3609,8 +3841,23 @@
       <c r="E31" s="12">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="62">
+        <v>-0.05</v>
+      </c>
+      <c r="G31" s="62">
+        <v>0.16</v>
+      </c>
+      <c r="H31" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>0.19</v>
+      </c>
+      <c r="J31" s="62">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3662,20 +3909,20 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
-        <v>155</v>
+      <c r="A35" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="58">
+      <c r="C35" s="30">
         <f>(C34-B34)/B34</f>
         <v>-2.727270351938996E-2</v>
       </c>
-      <c r="D35" s="58">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+      <c r="D35" s="30">
+        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="58">
-        <f t="shared" si="3"/>
+      <c r="E35" s="30">
+        <f t="shared" si="7"/>
         <v>0.14186639869200113</v>
       </c>
     </row>
@@ -3684,16 +3931,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3701,16 +3948,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3735,10 +3982,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>457000000</v>
@@ -3905,16 +4152,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3922,16 +4169,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3973,16 +4220,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4027,7 +4274,7 @@
         <v>9223000</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>22000000</v>
@@ -4047,10 +4294,10 @@
         <v>849000</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4109,7 +4356,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>171709000</v>
@@ -4143,16 +4390,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4194,16 +4441,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4228,13 +4475,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>68000000</v>
@@ -4330,16 +4577,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4347,16 +4594,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4401,7 +4648,7 @@
         <v>-3369000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-3000000</v>
@@ -4428,23 +4675,23 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="56" t="s">
-        <v>156</v>
+      <c r="A80" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="B80" s="21">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="8">B79/B3</f>
         <v>5.0688015109115539E-2</v>
       </c>
       <c r="C80" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10491487412742033</v>
       </c>
       <c r="D80" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.325513196480939E-2</v>
       </c>
       <c r="E80" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.7147564994507501E-2</v>
       </c>
     </row>
@@ -4498,10 +4745,10 @@
       <c r="E83" s="1">
         <v>-68000000</v>
       </c>
-      <c r="L83" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="M83" s="64"/>
+      <c r="L83" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4519,10 +4766,10 @@
       <c r="E84" s="1">
         <v>-11000000</v>
       </c>
-      <c r="L84" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="M84" s="66"/>
+      <c r="L84" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4540,10 +4787,10 @@
       <c r="E85" s="1">
         <v>-91000000</v>
       </c>
-      <c r="L85" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="M85" s="28">
+      <c r="L85" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="M85" s="34">
         <f>E17</f>
         <v>11000000</v>
       </c>
@@ -4564,10 +4811,10 @@
       <c r="E86" s="1">
         <v>-9000000</v>
       </c>
-      <c r="L86" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="M86" s="28">
+      <c r="L86" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M86" s="34">
         <f>E56</f>
         <v>14000000</v>
       </c>
@@ -4588,10 +4835,10 @@
       <c r="E87" s="10">
         <v>-156000000</v>
       </c>
-      <c r="L87" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="M87" s="28">
+      <c r="L87" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M87" s="34">
         <f>E61</f>
         <v>80000000</v>
       </c>
@@ -4612,38 +4859,38 @@
       <c r="E88" s="1">
         <v>-16000000</v>
       </c>
-      <c r="L88" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M88" s="30">
+      <c r="L88" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M88" s="36">
         <f>M85/(M86+M87)</f>
         <v>0.11702127659574468</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="56" t="s">
-        <v>157</v>
+      <c r="A89" s="28" t="s">
+        <v>154</v>
       </c>
       <c r="B89" s="21">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
         <v>1.3730228305833279E-2</v>
       </c>
       <c r="C89" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.3478145721109805E-2</v>
       </c>
       <c r="D89" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0381231671554252E-3</v>
       </c>
       <c r="E89" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8586598315635303E-3</v>
       </c>
-      <c r="L89" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M89" s="28">
+      <c r="L89" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="M89" s="34">
         <f>E27</f>
         <v>-2000000</v>
       </c>
@@ -4656,7 +4903,7 @@
         <v>-32697000</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-26000000</v>
@@ -4664,10 +4911,10 @@
       <c r="E90" s="1">
         <v>-46000000</v>
       </c>
-      <c r="L90" s="27" t="s">
+      <c r="L90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="28">
+      <c r="M90" s="34">
         <f>E25</f>
         <v>-277000000</v>
       </c>
@@ -4677,10 +4924,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-469000000</v>
@@ -4688,10 +4935,10 @@
       <c r="E91" s="1">
         <v>-434000000</v>
       </c>
-      <c r="L91" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="M91" s="30">
+      <c r="L91" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M91" s="36">
         <f>M89/M90</f>
         <v>7.2202166064981952E-3</v>
       </c>
@@ -4701,10 +4948,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>10000000</v>
@@ -4712,10 +4959,10 @@
       <c r="E92" s="1">
         <v>415000000</v>
       </c>
-      <c r="L92" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="M92" s="32">
+      <c r="L92" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="M92" s="36">
         <f>M88*(1-M91)</f>
         <v>0.11617635763115447</v>
       </c>
@@ -4736,10 +4983,10 @@
       <c r="E93" s="1">
         <v>-17000000</v>
       </c>
-      <c r="L93" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M93" s="66"/>
+      <c r="L93" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4757,11 +5004,12 @@
       <c r="E94" s="10">
         <v>-98000000</v>
       </c>
-      <c r="L94" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="M94" s="33">
-        <v>4.095E-2</v>
+      <c r="L94" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M94" s="37">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4775,15 +5023,15 @@
         <v>-9223000</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L95" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="M95" s="34" cm="1">
+        <v>91</v>
+      </c>
+      <c r="L95" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M95" s="38" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
         <v>1.97</v>
       </c>
@@ -4802,12 +5050,12 @@
         <v>960000000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L96" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M96" s="33">
+        <v>91</v>
+      </c>
+      <c r="L96" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4822,17 +5070,17 @@
         <v>-1268000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L97" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="M97" s="32">
+        <v>91</v>
+      </c>
+      <c r="L97" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M97" s="36">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.1257585</v>
+        <v>0.12753360000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,21 +5088,21 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="M98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4872,10 +5120,10 @@
       <c r="E99" s="1">
         <v>38000000</v>
       </c>
-      <c r="L99" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="M99" s="28">
+      <c r="L99" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M99" s="34">
         <f>M86+M87</f>
         <v>94000000</v>
       </c>
@@ -4896,10 +5144,10 @@
       <c r="E100" s="10">
         <v>38000000</v>
       </c>
-      <c r="L100" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="M100" s="30">
+      <c r="L100" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M100" s="36">
         <f>M99/M103</f>
         <v>7.6850989939839147E-3</v>
       </c>
@@ -4918,12 +5166,12 @@
         <v>-1000000</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L101" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="M101" s="35" cm="1">
+        <v>91</v>
+      </c>
+      <c r="L101" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M101" s="39" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
         <v>12137462480</v>
       </c>
@@ -4944,10 +5192,10 @@
       <c r="E102" s="10">
         <v>-216000000</v>
       </c>
-      <c r="L102" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="M102" s="30">
+      <c r="L102" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M102" s="36">
         <f>M101/M103</f>
         <v>0.99231490100601605</v>
       </c>
@@ -4968,10 +5216,10 @@
       <c r="E103" s="1">
         <v>851000000</v>
       </c>
-      <c r="L103" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="M103" s="36">
+      <c r="L103" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M103" s="40">
         <f>M99+M101</f>
         <v>12231462480</v>
       </c>
@@ -4992,238 +5240,254 @@
       <c r="E104" s="11">
         <v>635000000</v>
       </c>
-      <c r="L104" s="65" t="s">
+      <c r="L104" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="M104" s="67"/>
+    </row>
+    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="10">(B22*(1-$M$91))+B77+B88+B81</f>
+        <v>-169751093.86281589</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-247852490.97472924</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-206353790.61371842</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-$M$91))+E77+E88+E81</f>
+        <v>-502227436.82310468</v>
+      </c>
+      <c r="F105" s="25">
+        <f>E105*(1+$Q$106)</f>
+        <v>-502227436.82310468</v>
+      </c>
+      <c r="G105" s="25">
+        <f t="shared" ref="G105:J105" si="11">F105*(1+$Q$106)</f>
+        <v>-502227436.82310468</v>
+      </c>
+      <c r="H105" s="25">
+        <f t="shared" si="11"/>
+        <v>-502227436.82310468</v>
+      </c>
+      <c r="I105" s="25">
+        <f t="shared" si="11"/>
+        <v>-502227436.82310468</v>
+      </c>
+      <c r="J105" s="25">
+        <f t="shared" si="11"/>
+        <v>-502227436.82310468</v>
+      </c>
+      <c r="K105" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L105" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="M104" s="66"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="21">
-        <f>(C106/B106)-1</f>
+      <c r="M105" s="42">
+        <f>(M100*M92)+(M102*M97)</f>
+        <v>0.12744631846809676</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="21">
+        <f>(C107/B107)-1</f>
         <v>0.1380164996636335</v>
       </c>
-      <c r="D105" s="21">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="21">
+        <f>(D107/C107)-1</f>
         <v>-0.8942161102641486</v>
       </c>
-      <c r="E105" s="21">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="21">
+        <f>(E107/D107)-1</f>
         <v>10.117647058823529</v>
       </c>
-      <c r="F105" s="59">
-        <v>20184000</v>
-      </c>
-      <c r="G105" s="59">
-        <v>101600000</v>
-      </c>
-      <c r="H105" s="59">
-        <v>244500000</v>
-      </c>
-      <c r="I105" s="59">
-        <v>559900000</v>
-      </c>
-      <c r="J105" s="59">
-        <v>840200000</v>
-      </c>
-      <c r="K105" s="21"/>
-      <c r="L105" s="37" t="s">
+      <c r="F106" s="31">
+        <v>20650000</v>
+      </c>
+      <c r="G106" s="31">
+        <v>110600000</v>
+      </c>
+      <c r="H106" s="31">
+        <v>242600000</v>
+      </c>
+      <c r="I106" s="31">
+        <v>605100000</v>
+      </c>
+      <c r="J106" s="31">
+        <v>886400000</v>
+      </c>
+      <c r="K106" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L106" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="M105" s="38">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.12568486028732095</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="M106" s="44">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.22564621063838089</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="1">
         <v>-141215000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-160705000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-17000000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-189000000</v>
       </c>
-      <c r="F106" s="39">
-        <f>E106*(1+$M$106)</f>
-        <v>-228897255.66685027</v>
-      </c>
-      <c r="G106" s="39">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>-277216685.98844135</v>
-      </c>
-      <c r="H106" s="39">
-        <f t="shared" si="6"/>
-        <v>-335736183.32176304</v>
-      </c>
-      <c r="I106" s="39">
-        <f t="shared" si="6"/>
-        <v>-406608947.03922808</v>
-      </c>
-      <c r="J106" s="39">
-        <f t="shared" si="6"/>
-        <v>-492442709.5601427</v>
-      </c>
-      <c r="K106" s="40" t="s">
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="32">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>8868644706.6708241</v>
+      </c>
+      <c r="K107" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="L106" s="41" t="s">
+      <c r="L107" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="M106" s="42">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.21109659082989568</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="60">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>8553470676.1513939</v>
-      </c>
-      <c r="K107" s="43" t="s">
+      <c r="M107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="32">
+        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
+        <v>20650000</v>
+      </c>
+      <c r="G108" s="32">
+        <f t="shared" si="12"/>
+        <v>110600000</v>
+      </c>
+      <c r="H108" s="32">
+        <f t="shared" si="12"/>
+        <v>242600000</v>
+      </c>
+      <c r="I108" s="32">
+        <f t="shared" si="12"/>
+        <v>605100000</v>
+      </c>
+      <c r="J108" s="32">
+        <f>J107+J106</f>
+        <v>9755044706.6708241</v>
+      </c>
+      <c r="K108" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L108" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="L107" s="44" t="s">
+      <c r="M108" s="44">
+        <f>M105</f>
+        <v>0.12744631846809676</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="M107" s="45">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="60">
-        <f>F107+F105</f>
-        <v>20184000</v>
-      </c>
-      <c r="G108" s="60">
-        <f>G107+G105</f>
-        <v>101600000</v>
-      </c>
-      <c r="H108" s="60">
-        <f>H107+H105</f>
-        <v>244500000</v>
-      </c>
-      <c r="I108" s="60">
-        <f>I107+I105</f>
-        <v>559900000</v>
-      </c>
-      <c r="J108" s="60">
-        <f>J107+J105</f>
-        <v>9393670676.1513939</v>
-      </c>
-      <c r="K108" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="L108" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="M108" s="47">
-        <f>M105</f>
-        <v>0.12568486028732095</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="G109" s="62"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="G110" s="35">
+        <v>140</v>
+      </c>
+      <c r="G110" s="39">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5815191102.3876829</v>
+        <v>6003978504.347949</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F111" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G111" s="35">
+        <v>141</v>
+      </c>
+      <c r="G111" s="39">
         <f>E40</f>
         <v>1021000000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F112" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G112" s="35">
+        <v>128</v>
+      </c>
+      <c r="G112" s="39">
         <f>M99</f>
         <v>94000000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F113" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G113" s="35">
+        <v>142</v>
+      </c>
+      <c r="G113" s="39">
         <f>G110+G111-G112</f>
-        <v>6742191102.3876829</v>
+        <v>6930978504.347949</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F114" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G114" s="49">
-        <f>E34*(1+(5*K16))</f>
-        <v>610076156.57205927</v>
+        <v>166</v>
+      </c>
+      <c r="G114" s="48">
+        <f>E34*(1+(5*0))</f>
+        <v>512243106</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="G115" s="51">
+      <c r="F115" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G115" s="50">
         <f>G113/G114</f>
-        <v>11.051392567562715</v>
+        <v>13.530642820106493</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F116" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G116" s="52" cm="1">
+        <v>144</v>
+      </c>
+      <c r="G116" s="51" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
         <v>22.88</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G117" s="54">
+      <c r="F117" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G117" s="52">
         <f>G115/G116-1</f>
-        <v>-0.51698459057855262</v>
+        <v>-0.40862575086947139</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G118" s="55" t="str">
+      <c r="F118" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G118" s="53" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5248,8 +5512,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1650164/000165016423000069/0001650164-23-000069-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1650164/000165016423000069/0001650164-23-000069-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NYSE:TOST/explorer/revenue_proj" xr:uid="{763238E5-5ECD-6445-A1B3-3B76355CFF0D}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{C79B1E80-305B-7840-8F80-1294AEEC36C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>